--- a/aichan/496001746977164544_2021-02-26_23-00-06.xlsx
+++ b/aichan/496001746977164544_2021-02-26_23-00-06.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-05 22:15:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44291.92762731481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4235656707</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-08 03:20:57</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44263.13954861111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>4230665363</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-07 04:08:03</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44262.17225694445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>4217270252</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:30:19</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44259.52105324074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -840,10 +848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-02 19:06:15</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44257.79600694445</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -915,10 +921,8 @@
           <t>4209458968</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-02 17:16:13</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44257.71959490741</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -982,10 +986,8 @@
           <t>4204889415</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-01 16:24:51</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44256.68392361111</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1049,10 +1051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-01 13:41:48</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44256.57069444445</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1120,10 +1120,8 @@
           <t>4203818489</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:35:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44256.48273148148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1187,10 +1185,8 @@
           <t>4203818489</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:18:05</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44256.4708912037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1258,10 +1254,8 @@
           <t>4203818489</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:15:18</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44256.46895833333</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1325,10 +1319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:14:45</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44256.46857638889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1392,10 +1384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-01 11:00:56</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44256.45898148148</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1463,10 +1453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:55:11</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44256.45498842592</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1543,10 +1531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:49:28</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44256.45101851852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1610,10 +1596,8 @@
           <t>4203740853</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:47:18</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44256.44951388889</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1690,10 +1674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:38:51</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44256.44364583334</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1769,10 +1751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:38:19</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44256.44327546296</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -1840,10 +1820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:33:52</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44256.44018518519</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -1915,10 +1893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-01 10:13:50</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44256.42627314815</v>
       </c>
       <c r="I21" t="n">
         <v>7</v>
@@ -1990,10 +1966,8 @@
           <t>4203410707</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-01 08:28:36</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44256.35319444445</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2057,10 +2031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-01 06:07:02</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44256.25488425926</v>
       </c>
       <c r="I23" t="n">
         <v>13</v>
@@ -2136,10 +2108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-01 00:24:18</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44256.016875</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2203,10 +2173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-28 21:43:42</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44255.90534722222</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2274,10 +2242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-28 21:30:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44255.89644675926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2349,10 +2315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-28 20:58:39</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44255.8740625</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -2416,10 +2380,8 @@
           <t>4201383860</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-28 19:54:25</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44255.82945601852</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2496,10 +2458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-28 19:07:51</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44255.79711805555</v>
       </c>
       <c r="I29" t="n">
         <v>71</v>
@@ -2563,10 +2523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-28 17:48:34</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44255.74206018518</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2634,10 +2592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-28 17:08:48</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44255.71444444444</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2705,10 +2661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-28 16:24:27</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44255.68364583333</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2784,10 +2738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-28 15:24:37</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44255.64209490741</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2855,10 +2807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-28 13:57:16</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44255.58143518519</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2934,10 +2884,8 @@
           <t>4198723914</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-28 10:11:20</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44255.42453703703</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -3005,10 +2953,8 @@
           <t>4198629813</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-28 09:45:08</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44255.40634259259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3076,10 +3022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-28 09:05:57</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44255.37913194444</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3155,10 +3099,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-28 04:23:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44255.18324074074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3226,10 +3168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-28 01:37:52</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44255.06796296296</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3307,10 +3247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-28 00:31:00</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44255.02152777778</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3370,10 +3308,8 @@
           <t>4194881983</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-28 00:00:37</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44255.00042824074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3433,10 +3369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-27 22:57:11</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44254.95637731482</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3519,10 +3453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-27 21:05:44</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44254.87898148148</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3594,10 +3526,8 @@
           <t>4196381669</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-27 21:02:55</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44254.87702546296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3665,10 +3595,8 @@
           <t>4195780819</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-27 19:19:45</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44254.80538194445</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3732,10 +3660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-27 18:11:26</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44254.75793981482</v>
       </c>
       <c r="I46" t="n">
         <v>6</v>
@@ -3799,10 +3725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-27 17:40:27</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44254.73642361111</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3866,10 +3790,8 @@
           <t>4193065025</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-27 17:36:28</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44254.73365740741</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3945,10 +3867,8 @@
           <t>4193457905</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-27 16:47:35</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44254.69971064815</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4020,10 +3940,8 @@
           <t>4194881983</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-27 16:46:52</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44254.69921296297</v>
       </c>
       <c r="I50" t="n">
         <v>4</v>
@@ -4095,10 +4013,8 @@
           <t>4194689099</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-27 16:06:57</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44254.67149305555</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4174,10 +4090,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-27 15:56:19</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44254.6641087963</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4253,10 +4167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-27 14:52:04</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44254.61949074074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4332,10 +4244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-27 14:30:17</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44254.60436342593</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4411,10 +4321,8 @@
           <t>4193706783</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-27 13:44:56</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44254.57287037037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4486,10 +4394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-27 13:25:12</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44254.55916666667</v>
       </c>
       <c r="I56" t="n">
         <v>6</v>
@@ -4565,10 +4471,8 @@
           <t>4193932213</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-27 13:22:57</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44254.55760416666</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4636,10 +4540,8 @@
           <t>4188629442</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-27 12:46:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44254.53195601852</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4715,10 +4617,8 @@
           <t>4193709310</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-27 12:42:32</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44254.52953703704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4778,10 +4678,8 @@
           <t>4193706783</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-27 12:41:12</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44254.52861111111</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4845,10 +4743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-27 12:26:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44254.5180787037</v>
       </c>
       <c r="I61" t="n">
         <v>7</v>
@@ -4912,10 +4808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-27 12:25:21</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44254.51760416666</v>
       </c>
       <c r="I62" t="n">
         <v>4</v>
@@ -4995,10 +4889,8 @@
           <t>4193457905</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-27 12:00:55</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44254.50063657408</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5058,10 +4950,8 @@
           <t>4193439817</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-27 11:59:00</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44254.49930555555</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5137,10 +5027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-27 11:49:02</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44254.49238425926</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5205,10 +5093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:51:50</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44254.45266203704</v>
       </c>
       <c r="I66" t="n">
         <v>4</v>
@@ -5282,10 +5168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:43:43</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44254.44702546296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5357,10 +5241,8 @@
           <t>4193065025</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:38:39</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44254.44350694444</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5430,10 +5312,8 @@
           <t>4191110966</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:22:48</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44254.4325</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5501,10 +5381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:17:32</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44254.42884259259</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5568,10 +5446,8 @@
           <t>4190430997</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-27 10:15:08</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44254.42717592593</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5637,10 +5513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:39:55</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44254.4027199074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5708,10 +5582,8 @@
           <t>4192716295</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-27 09:09:28</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44254.38157407408</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5775,10 +5647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-27 08:48:01</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44254.36667824074</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5854,10 +5724,8 @@
           <t>4192570642</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-27 08:22:37</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44254.34903935185</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5933,10 +5801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-27 07:49:19</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44254.32591435185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6004,10 +5870,8 @@
           <t>4190430997</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-27 05:33:16</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44254.23143518518</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6083,10 +5947,8 @@
           <t>4192368012</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-27 05:31:12</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44254.23</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6162,10 +6024,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-27 05:30:26</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44254.2294675926</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6241,10 +6101,8 @@
           <t>4192240294</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-27 03:07:05</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44254.12991898148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6304,10 +6162,8 @@
           <t>4192194289</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-27 02:43:24</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44254.11347222222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6379,10 +6235,8 @@
           <t>4192153504</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-27 02:23:44</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44254.09981481481</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6454,10 +6308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-27 02:11:36</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44254.09138888889</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6533,10 +6385,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:53:30</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44254.03715277778</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6604,10 +6454,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:53:19</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44254.03702546296</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6675,10 +6523,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:52:56</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44254.03675925926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6746,10 +6592,8 @@
           <t>4191749347</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:27:50</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44254.0193287037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6825,10 +6669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-27 00:12:32</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44254.0087037037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6904,10 +6746,8 @@
           <t>4191597797</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:59:26</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44253.99960648148</v>
       </c>
       <c r="I89" t="n">
         <v>6</v>
@@ -6976,10 +6816,8 @@
           <t>4191552712</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:51:48</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44253.99430555556</v>
       </c>
       <c r="I90" t="n">
         <v>9</v>
@@ -7051,10 +6889,8 @@
           <t>4188440898</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:47:54</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44253.99159722222</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7126,10 +6962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:47:31</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44253.99133101852</v>
       </c>
       <c r="I92" t="n">
         <v>46</v>
@@ -7206,10 +7040,8 @@
           <t>4191511151</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:43:49</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44253.98876157407</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7277,10 +7109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:27:57</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44253.97774305556</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7340,10 +7170,8 @@
           <t>4191110966</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:21:37</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44253.9733449074</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7407,10 +7235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:06:44</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44253.96300925926</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7482,10 +7308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:06:05</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44253.96255787037</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7545,10 +7369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:04:13</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44253.96126157408</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7617,10 +7439,8 @@
           <t>4189497421</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:01:51</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44253.95961805555</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7688,10 +7508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:55:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44253.95497685186</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7755,10 +7573,8 @@
           <t>4191118967</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:44:37</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44253.94765046296</v>
       </c>
       <c r="I101" t="n">
         <v>25</v>
@@ -7827,10 +7643,8 @@
           <t>4191110966</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:42:06</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44253.94590277778</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7898,10 +7712,8 @@
           <t>4191081873</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:38:12</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44253.94319444444</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7969,10 +7781,8 @@
           <t>4191035595</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:31:07</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44253.93827546296</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -8036,10 +7846,8 @@
           <t>4190995194</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:24:30</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44253.93368055556</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8111,10 +7919,8 @@
           <t>4190907532</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:12:51</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44253.92559027778</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8190,10 +7996,8 @@
           <t>4188645376</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:10:37</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44253.92403935185</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8253,10 +8057,8 @@
           <t>4190848701</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:04:57</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44253.92010416667</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8324,10 +8126,8 @@
           <t>4190824835</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-26 22:01:18</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44253.91756944444</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8399,10 +8199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:56:46</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44253.91442129629</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8474,10 +8272,8 @@
           <t>4190430997</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:52:26</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44253.91141203704</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8549,10 +8345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:40:20</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44253.90300925926</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8612,10 +8406,8 @@
           <t>4190623428</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:31:09</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44253.89663194444</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8683,10 +8475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:22:00</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44253.89027777778</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8762,10 +8552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:21:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44253.89</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8829,10 +8617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:18:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44253.88797453704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8908,10 +8694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:11:39</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44253.88309027778</v>
       </c>
       <c r="I117" t="n">
         <v>28</v>
@@ -8986,10 +8770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:02:33</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44253.87677083333</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9057,10 +8839,8 @@
           <t>4190430997</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:59:14</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44253.87446759259</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9124,10 +8904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:58:26</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44253.87391203704</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9199,10 +8977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:58:24</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44253.87388888889</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9266,10 +9042,8 @@
           <t>4190345578</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:45:38</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44253.86502314815</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9337,10 +9111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:32:01</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44253.85556712963</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9404,10 +9176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:24:47</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44253.85054398148</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9479,10 +9249,8 @@
           <t>4190191458</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:21:31</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44253.84827546297</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9554,10 +9322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:17:30</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44253.84548611111</v>
       </c>
       <c r="I126" t="n">
         <v>35</v>
@@ -9629,10 +9395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:08:21</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44253.83913194444</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9704,10 +9468,8 @@
           <t>4189497421</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:00:13</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44253.8334837963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9772,10 +9534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:59:38</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44253.8330787037</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9851,10 +9611,8 @@
           <t>4189973371</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:47:19</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44253.82452546297</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9922,10 +9680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:41:34</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44253.82053240741</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10001,10 +9757,8 @@
           <t>4189874346</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:33:07</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44253.81466435185</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10072,10 +9826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:32:50</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44253.81446759259</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10151,10 +9903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:09:05</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44253.79797453704</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10222,10 +9972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:08:51</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44253.7978125</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10293,10 +10041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:05:02</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44253.79516203704</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10372,10 +10118,8 @@
           <t>4189585065</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:01:00</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44253.79236111111</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10447,10 +10191,8 @@
           <t>4189648182</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:58:50</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44253.79085648148</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10517,10 +10259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:57:27</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44253.78989583333</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10588,10 +10328,8 @@
           <t>4189631099</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:55:41</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44253.78866898148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10667,10 +10405,8 @@
           <t>4189605331</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:51:26</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44253.78571759259</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10748,10 +10484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:50:20</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44253.7849537037</v>
       </c>
       <c r="I142" t="n">
         <v>362</v>
@@ -10819,10 +10553,8 @@
           <t>4189585065</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:48:19</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44253.78355324074</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10898,10 +10630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:46:24</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44253.78222222222</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10965,10 +10695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:44:45</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44253.78107638889</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11040,10 +10768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:43:22</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44253.78011574074</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11107,10 +10833,8 @@
           <t>4189547500</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:43:18</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44253.78006944444</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11170,10 +10894,8 @@
           <t>4189497421</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:35:59</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44253.77498842592</v>
       </c>
       <c r="I148" t="n">
         <v>14</v>
@@ -11245,10 +10967,8 @@
           <t>4189492737</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:35:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44253.77439814815</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11320,10 +11040,8 @@
           <t>4189482419</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:33:57</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44253.77357638889</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11386,10 +11104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:33:18</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44253.773125</v>
       </c>
       <c r="I151" t="n">
         <v>100</v>
@@ -11461,10 +11177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:29:30</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44253.77048611111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11532,10 +11246,8 @@
           <t>4189460212</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:29:21</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44253.77038194444</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11611,10 +11323,8 @@
           <t>4189441873</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:27:35</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44253.7691550926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11690,10 +11400,8 @@
           <t>4189441524</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:27:24</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44253.76902777778</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11769,10 +11477,8 @@
           <t>4188645376</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:25:16</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44253.76754629629</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11844,10 +11550,8 @@
           <t>4189423320</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:25:04</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44253.76740740741</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11911,10 +11615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:18:36</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44253.76291666667</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11982,10 +11684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:18:29</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44253.76283564815</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12049,10 +11749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:17:48</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44253.76236111111</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12124,10 +11822,8 @@
           <t>4189362817</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:15:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44253.76077546296</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12191,10 +11887,8 @@
           <t>4189360870</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:14:37</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44253.76015046296</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12262,10 +11956,8 @@
           <t>4189360396</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:14:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44253.75998842593</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12337,10 +12029,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:13:23</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44253.75929398148</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12400,10 +12090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:05:08</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44253.75356481481</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12467,10 +12155,8 @@
           <t>4188738716</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:01:50</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44253.75127314815</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12546,10 +12232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:59:29</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44253.74964120371</v>
       </c>
       <c r="I167" t="n">
         <v>20</v>
@@ -12621,10 +12305,8 @@
           <t>4189256565</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:58:34</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44253.74900462963</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12684,10 +12366,8 @@
           <t>4188595247</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:57:30</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44253.74826388889</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12763,10 +12443,8 @@
           <t>4189250367</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:56:58</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44253.74789351852</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12842,10 +12520,8 @@
           <t>4188595247</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:56:20</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44253.74745370371</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12909,10 +12585,8 @@
           <t>4189234549</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:55:39</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44253.74697916667</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12984,10 +12658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:53:26</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44253.74543981482</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13059,10 +12731,8 @@
           <t>4189212268</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:51:12</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44253.74388888889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13130,10 +12800,8 @@
           <t>4189215510</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:51:06</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44253.74381944445</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13216,10 +12884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:49:19</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44253.74258101852</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13283,10 +12949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:48:26</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44253.74196759259</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13362,10 +13026,8 @@
           <t>4189184121</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:46:56</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44253.74092592593</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13437,10 +13099,8 @@
           <t>4189174987</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:45:46</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44253.74011574074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13516,10 +13176,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:45:26</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44253.73988425926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13587,10 +13245,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:45:20</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44253.73981481481</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13662,10 +13318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:42:40</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44253.73796296296</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13729,10 +13383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:39:29</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44253.73575231482</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13796,10 +13448,8 @@
           <t>4189137335</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:38:06</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44253.73479166667</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13859,10 +13509,8 @@
           <t>4189126554</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:36:27</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44253.73364583333</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13930,10 +13578,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:35:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44253.733125</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14001,10 +13647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:31:12</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44253.73</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14068,10 +13712,8 @@
           <t>4189094472</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:31:09</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44253.72996527778</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14143,10 +13785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:29:10</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44253.72858796296</v>
       </c>
       <c r="I189" t="n">
         <v>5</v>
@@ -14222,10 +13862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:29:02</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44253.72849537037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14293,10 +13931,8 @@
           <t>4189054533</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:24:49</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44253.72556712963</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14373,10 +14009,8 @@
           <t>4188645376</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:22:18</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44253.72381944444</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14444,10 +14078,8 @@
           <t>4189043531</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:22:17</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44253.72380787037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14519,10 +14151,8 @@
           <t>4189042241</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:21:37</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44253.7233449074</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14594,10 +14224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:20:59</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44253.7229050926</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14669,10 +14297,8 @@
           <t>4189022453</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:18:24</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44253.72111111111</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14732,10 +14358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:15:39</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44253.71920138889</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14811,10 +14435,8 @@
           <t>4188986177</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:10:09</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44253.71538194444</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14882,10 +14504,8 @@
           <t>4188968044</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:08:05</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44253.71394675926</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14961,10 +14581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:26</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44253.71210648148</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15028,10 +14646,8 @@
           <t>4188947969</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:05:08</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44253.71189814815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15095,10 +14711,8 @@
           <t>4188936693</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:05</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44253.70978009259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15158,10 +14772,8 @@
           <t>4188921688</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:59:28</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44253.70796296297</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15221,10 +14833,8 @@
           <t>4188925188</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:58:39</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44253.70739583333</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15288,10 +14898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:57:52</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44253.70685185185</v>
       </c>
       <c r="I205" t="n">
         <v>14</v>
@@ -15355,10 +14963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:57:38</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44253.70668981481</v>
       </c>
       <c r="I206" t="n">
         <v>12</v>
@@ -15422,10 +15028,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:53:27</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44253.70378472222</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15501,10 +15105,8 @@
           <t>4188878029</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:51:43</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44253.70258101852</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15580,10 +15182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:47:57</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44253.69996527778</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15659,10 +15259,8 @@
           <t>4188856445</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:46:50</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44253.69918981481</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15739,10 +15337,8 @@
           <t>4188844422</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:45:41</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44253.6983912037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15818,10 +15414,8 @@
           <t>4188839383</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:43:57</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44253.6971875</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15893,10 +15487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:43:49</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44253.69709490741</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15960,10 +15552,8 @@
           <t>4188833015</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:42:59</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44253.6965162037</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16031,10 +15621,8 @@
           <t>4188595247</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:41:32</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44253.69550925926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16098,10 +15686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:41:04</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44253.69518518518</v>
       </c>
       <c r="I216" t="n">
         <v>5</v>
@@ -16161,10 +15747,8 @@
           <t>4188818073</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:40:09</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44253.69454861111</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16232,10 +15816,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:38:38</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44253.69349537037</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16303,10 +15885,8 @@
           <t>4188804651</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:38:09</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44253.69315972222</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16376,10 +15956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:36:44</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44253.69217592593</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16451,10 +16029,8 @@
           <t>4188645376</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:35:33</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44253.69135416667</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16514,10 +16090,8 @@
           <t>4188769381</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:30:55</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44253.68813657408</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16581,10 +16155,8 @@
           <t>4188595247</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:30:08</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44253.68759259259</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16661,10 +16233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:29:11</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44253.68693287037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16739,10 +16309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:29:08</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44253.68689814815</v>
       </c>
       <c r="I225" t="n">
         <v>6</v>
@@ -16818,10 +16386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:28:24</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44253.68638888889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16885,10 +16451,8 @@
           <t>4188595247</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:28:24</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44253.68638888889</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -16964,10 +16528,8 @@
           <t>4188747361</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:25:39</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44253.68447916667</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17035,10 +16597,8 @@
           <t>4188383662</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:25:39</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44253.68447916667</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17106,10 +16666,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:25:39</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44253.68447916667</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17177,10 +16735,8 @@
           <t>4188738716</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:24:31</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44253.68369212963</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17248,10 +16804,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:23:31</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44253.68299768519</v>
       </c>
       <c r="I232" t="n">
         <v>6</v>
@@ -17327,10 +16881,8 @@
           <t>4188669503</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:23:21</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44253.68288194444</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17394,10 +16946,8 @@
           <t>4188736266</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:23:04</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44253.68268518519</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17473,10 +17023,8 @@
           <t>4188629442</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:22:56</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44253.6825925926</v>
       </c>
       <c r="I235" t="n">
         <v>10</v>
@@ -17548,10 +17096,8 @@
           <t>4188735195</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:22:23</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44253.68221064815</v>
       </c>
       <c r="I236" t="n">
         <v>4</v>
@@ -17619,10 +17165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:22:12</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44253.68208333333</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17686,10 +17230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:17:28</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44253.6787962963</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17765,10 +17307,8 @@
           <t>4188695412</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:14:56</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44253.67703703704</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17843,10 +17383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:14:38</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44253.6768287037</v>
       </c>
       <c r="I240" t="n">
         <v>5</v>
@@ -17922,10 +17460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:13:27</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44253.67600694444</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17989,10 +17525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:13:00</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44253.67569444444</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18056,10 +17590,8 @@
           <t>4188669503</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:11:22</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44253.67456018519</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18135,10 +17667,8 @@
           <t>4188671799</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:10:38</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44253.67405092593</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18206,10 +17736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:08:30</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44253.67256944445</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18281,10 +17809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:07:45</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44253.67204861111</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18348,10 +17874,8 @@
           <t>4188657006</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:07:45</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44253.67204861111</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18411,10 +17935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:07:33</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44253.67190972222</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18490,10 +18012,8 @@
           <t>4188661009</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:07:33</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44253.67190972222</v>
       </c>
       <c r="I249" t="n">
         <v>5</v>
@@ -18569,10 +18089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:07:28</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44253.67185185185</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18632,10 +18150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:07:10</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44253.67164351852</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18699,10 +18215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:07:02</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44253.67155092592</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18770,10 +18284,8 @@
           <t>4188660030</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:06:57</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44253.67149305555</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18850,10 +18362,8 @@
           <t>4188650999</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:06:10</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44253.67094907408</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18921,10 +18431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:06:08</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44253.67092592592</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18988,10 +18496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:04:31</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44253.66980324074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19067,10 +18573,8 @@
           <t>4188645376</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:04:02</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44253.66946759259</v>
       </c>
       <c r="I257" t="n">
         <v>11</v>
@@ -19138,10 +18642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:03:42</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44253.66923611111</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19217,10 +18719,8 @@
           <t>4188634076</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:03:14</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44253.66891203704</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19284,10 +18784,8 @@
           <t>4188629442</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:03:12</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44253.66888888889</v>
       </c>
       <c r="I260" t="n">
         <v>70</v>
@@ -19359,10 +18857,8 @@
           <t>4188624808</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:02:20</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44253.66828703704</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19426,10 +18922,8 @@
           <t>4188627733</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:02:07</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44253.66813657407</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19505,10 +18999,8 @@
           <t>4188631326</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:01:30</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44253.66770833333</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19580,10 +19072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:00:09</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44253.66677083333</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19659,10 +19149,8 @@
           <t>4188608787</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:58:30</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44253.665625</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19734,10 +19222,8 @@
           <t>4188606393</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:56:57</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44253.66454861111</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19809,10 +19295,8 @@
           <t>4188596122</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:54:48</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44253.66305555555</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19884,10 +19368,8 @@
           <t>4188595247</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:54:13</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44253.66265046296</v>
       </c>
       <c r="I268" t="n">
         <v>51</v>
@@ -19963,10 +19445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:53:55</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44253.66244212963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20030,10 +19510,8 @@
           <t>4188583693</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:53:11</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44253.66193287037</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20097,10 +19575,8 @@
           <t>4188581095</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:51:27</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44253.66072916667</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20172,10 +19648,8 @@
           <t>4188580942</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:51:22</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44253.6606712963</v>
       </c>
       <c r="I272" t="n">
         <v>22</v>
@@ -20239,10 +19713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:50:52</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44253.66032407407</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20314,10 +19786,8 @@
           <t>4188366622</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:50:26</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44253.66002314815</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20385,10 +19855,8 @@
           <t>4188573824</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:50:05</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44253.6597800926</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20452,10 +19920,8 @@
           <t>4188568534</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:47</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44253.65957175926</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20527,10 +19993,8 @@
           <t>4188568504</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:46</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44253.65956018519</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20594,10 +20058,8 @@
           <t>4188573272</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:44</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44253.65953703703</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20665,10 +20127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:42</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44253.65951388889</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20744,10 +20204,8 @@
           <t>4188568058</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:28</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44253.65935185185</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20823,10 +20281,8 @@
           <t>4188570242</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44253.65929398148</v>
       </c>
       <c r="I281" t="n">
         <v>9</v>
@@ -20890,10 +20346,8 @@
           <t>4188567859</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:21</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44253.65927083333</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20961,10 +20415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:49:01</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44253.65903935185</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21036,10 +20488,8 @@
           <t>4188563911</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:48:57</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44253.65899305556</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21107,10 +20557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:48:31</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44253.65869212963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21170,10 +20618,8 @@
           <t>4188571000</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:48:18</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44253.65854166666</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21245,10 +20691,8 @@
           <t>4188570242</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:47:48</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44253.65819444445</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21316,10 +20760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:47:46</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44253.65817129629</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21395,10 +20837,8 @@
           <t>4188554582</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:47:16</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44253.65782407407</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21470,10 +20910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:46:56</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44253.65759259259</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21537,10 +20975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:46:24</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44253.65722222222</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21604,10 +21040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:45:38</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44253.65668981482</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21679,10 +21113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:45:37</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44253.65667824074</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21750,10 +21182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:45:21</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44253.65649305555</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21817,10 +21247,8 @@
           <t>4188556232</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:45:15</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44253.65642361111</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21896,10 +21324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:45:04</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44253.6562962963</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21977,10 +21403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:44:56</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44253.6562037037</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22052,10 +21476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:44:17</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44253.65575231481</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22127,10 +21549,8 @@
           <t>4188544381</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:44:04</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44253.65560185185</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22202,10 +21622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:43:28</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44253.65518518518</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22265,10 +21683,8 @@
           <t>4188545170</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:43:22</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44253.65511574074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22344,10 +21760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:43:18</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44253.65506944444</v>
       </c>
       <c r="I302" t="n">
         <v>381</v>
@@ -22411,10 +21825,8 @@
           <t>4188537829</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:42:47</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44253.65471064814</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22490,10 +21902,8 @@
           <t>4188541681</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:42:23</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44253.65443287037</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22561,10 +21971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:40:58</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44253.65344907407</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22636,10 +22044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:40:36</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44253.65319444444</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22712,10 +22118,8 @@
           <t>4188526352</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:39:06</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44253.65215277778</v>
       </c>
       <c r="I307" t="n">
         <v>2</v>
@@ -22779,10 +22183,8 @@
           <t>4188526043</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:38:54</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44253.65201388889</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22846,10 +22248,8 @@
           <t>4188512156</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:36:27</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44253.6503125</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22921,10 +22321,8 @@
           <t>4188499686</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:34:49</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44253.64917824074</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23000,10 +22398,8 @@
           <t>4188460602</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:34:44</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44253.64912037037</v>
       </c>
       <c r="I311" t="n">
         <v>3</v>
@@ -23071,10 +22467,8 @@
           <t>4188501328</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:34:28</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44253.64893518519</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23146,10 +22540,8 @@
           <t>4188500095</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:33:39</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44253.64836805555</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23225,10 +22617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:33:00</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44253.64791666667</v>
       </c>
       <c r="I314" t="n">
         <v>92</v>
@@ -23304,10 +22694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:32:20</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44253.64745370371</v>
       </c>
       <c r="I315" t="n">
         <v>101</v>
@@ -23383,10 +22771,8 @@
           <t>4188492002</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:32:17</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44253.64741898148</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23454,10 +22840,8 @@
           <t>4188492019</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:32:17</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44253.64741898148</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23525,10 +22909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:32:15</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44253.64739583333</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23604,10 +22986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:31:39</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44253.64697916667</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23683,10 +23063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:31:10</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44253.64664351852</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23762,10 +23140,8 @@
           <t>4188483888</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:31:05</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44253.64658564814</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23833,10 +23209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:30:39</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44253.64628472222</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -23908,10 +23282,8 @@
           <t>4188479319</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:30:28</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44253.64615740741</v>
       </c>
       <c r="I323" t="n">
         <v>14</v>
@@ -23983,10 +23355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:29:58</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44253.64581018518</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24058,10 +23428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:29:11</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44253.6452662037</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24137,10 +23505,8 @@
           <t>4188480924</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:29:10</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44253.64525462963</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24204,10 +23570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:26:09</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44253.64315972223</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24283,10 +23647,8 @@
           <t>4188456455</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:24:44</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44253.64217592592</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24354,10 +23716,8 @@
           <t>4188460602</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:24:27</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44253.64197916666</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24425,10 +23785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:23:43</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44253.64146990741</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24505,10 +23863,8 @@
           <t>4188451924</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:23:12</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44253.64111111111</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24576,10 +23932,8 @@
           <t>4188440898</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:23:03</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44253.64100694445</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24651,10 +24005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:22:34</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44253.6406712963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24722,10 +24074,8 @@
           <t>4188440898</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:21:44</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44253.64009259259</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24797,10 +24147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:21:33</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44253.63996527778</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24876,10 +24224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:21:30</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44253.63993055555</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24959,10 +24305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:21:24</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44253.63986111111</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25026,10 +24370,8 @@
           <t>4188440898</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:21:08</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44253.63967592592</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25093,10 +24435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:21:03</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44253.63961805555</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25164,10 +24504,8 @@
           <t>4188438536</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:20:59</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44253.63957175926</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25235,10 +24573,8 @@
           <t>4188445122</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:20:42</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44253.639375</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25302,10 +24638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:20:32</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44253.63925925926</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25373,10 +24707,8 @@
           <t>4188429831</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:20:30</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44253.63923611111</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25444,10 +24776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:20:09</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44253.63899305555</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25507,10 +24837,8 @@
           <t>4188433834</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:19:46</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44253.63872685185</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25586,10 +24914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:19:41</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44253.63866898148</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25653,10 +24979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:19:35</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44253.63859953704</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25732,10 +25056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:17:54</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44253.63743055556</v>
       </c>
       <c r="I348" t="n">
         <v>30</v>
@@ -25795,10 +25117,8 @@
           <t>4188412948</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:15:48</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44253.63597222222</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25874,10 +25194,8 @@
           <t>4188409531</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:15:01</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44253.63542824074</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25941,10 +25259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:14:25</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44253.63501157407</v>
       </c>
       <c r="I351" t="n">
         <v>6</v>
@@ -26004,10 +25320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:13:31</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44253.63438657407</v>
       </c>
       <c r="I352" t="n">
         <v>5</v>
@@ -26071,10 +25385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:13:30</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44253.634375</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26142,10 +25454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:13:21</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44253.63427083333</v>
       </c>
       <c r="I354" t="n">
         <v>2</v>
@@ -26217,10 +25527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:13:10</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44253.63414351852</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26288,10 +25596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:12:45</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44253.63385416667</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26355,10 +25661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:12:43</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44253.63383101852</v>
       </c>
       <c r="I357" t="n">
         <v>62</v>
@@ -26430,10 +25734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:12:19</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44253.63355324074</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26501,10 +25803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:11:16</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44253.63282407408</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26575,10 +25875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:11:13</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44253.63278935185</v>
       </c>
       <c r="I360" t="n">
         <v>291</v>
@@ -26650,10 +25948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:10:14</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44253.63210648148</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26721,10 +26017,8 @@
           <t>4188383735</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:09:24</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44253.63152777778</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26796,10 +26090,8 @@
           <t>4188383662</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:09:22</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44253.63150462963</v>
       </c>
       <c r="I363" t="n">
         <v>68</v>
@@ -26867,10 +26159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:09:09</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44253.63135416667</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26934,10 +26224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:09:04</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44253.6312962963</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27005,10 +26293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:07:46</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44253.63039351852</v>
       </c>
       <c r="I366" t="n">
         <v>4</v>
@@ -27084,10 +26370,8 @@
           <t>4188371764</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:07:41</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44253.63033564815</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27159,10 +26443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:07:35</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44253.63026620371</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27238,10 +26520,8 @@
           <t>4188385400</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:07:23</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44253.63012731481</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27317,10 +26597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:06:55</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44253.62980324074</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27392,10 +26670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:06:44</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44253.62967592593</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27459,10 +26735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:06:36</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44253.62958333334</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27526,10 +26800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:05:53</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44253.62908564815</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27601,10 +26873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:05:43</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44253.6289699074</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27664,10 +26934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:05:34</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44253.62886574074</v>
       </c>
       <c r="I375" t="n">
         <v>906</v>
@@ -27743,10 +27011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:05:12</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44253.62861111111</v>
       </c>
       <c r="I376" t="n">
         <v>35</v>
@@ -27806,10 +27072,8 @@
           <t>4188371764</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:04:55</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44253.62841435185</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27885,10 +27149,8 @@
           <t>4188364232</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:04:48</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44253.62833333333</v>
       </c>
       <c r="I378" t="n">
         <v>16</v>
@@ -27964,10 +27226,8 @@
           <t>4188366902</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:04:38</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44253.6282175926</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28031,10 +27291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:04:28</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44253.62810185185</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28106,10 +27364,8 @@
           <t>4188366622</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:04:25</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44253.62806712963</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28173,10 +27429,8 @@
           <t>4188359247</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:03:12</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44253.62722222223</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28244,10 +27498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:03:08</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44253.62717592593</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28324,10 +27576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:03:00</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44253.62708333333</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28399,10 +27649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:39</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44253.62684027778</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28462,10 +27710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:27</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44253.62670138889</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28537,10 +27783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:23</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44253.62665509259</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28604,10 +27848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:13</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44253.62653935186</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28679,10 +27921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:11</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44253.6265162037</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28750,10 +27990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:06</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44253.62645833333</v>
       </c>
       <c r="I390" t="n">
         <v>808</v>
@@ -28829,10 +28067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:04</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44253.62643518519</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28908,10 +28144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:02:02</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44253.62641203704</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28981,10 +28215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:39</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44253.62614583333</v>
       </c>
       <c r="I393" t="n">
         <v>155</v>
@@ -29048,10 +28280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:39</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44253.62614583333</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29115,10 +28345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:31</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44253.62605324074</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29194,10 +28422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:23</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44253.62596064815</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29269,10 +28495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:21</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44253.6259375</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29348,10 +28572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:20</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44253.62592592592</v>
       </c>
       <c r="I398" t="n">
         <v>3</v>
@@ -29423,10 +28645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:16</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44253.62587962963</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29502,10 +28722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:03</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44253.62572916667</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29565,10 +28783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:01:02</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44253.62571759259</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29636,10 +28852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:00:49</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44253.62556712963</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29699,10 +28913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:00:47</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44253.62554398148</v>
       </c>
       <c r="I403" t="n">
         <v>12</v>
@@ -29766,10 +28978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:00:35</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44253.62540509259</v>
       </c>
       <c r="I404" t="n">
         <v>2</v>
@@ -29845,10 +29055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:00:34</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44253.62539351852</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29920,10 +29128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:00:33</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44253.62538194445</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29983,10 +29189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:00:29</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44253.62533564815</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30050,10 +29254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:00:27</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44253.6253125</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
